--- a/biology/Botanique/Huile_de_germe_de_blé/Huile_de_germe_de_blé.xlsx
+++ b/biology/Botanique/Huile_de_germe_de_blé/Huile_de_germe_de_blé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Huile_de_germe_de_bl%C3%A9</t>
+          <t>Huile_de_germe_de_blé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile de germe de blé est l'huile extraite du germe du grain de blé, qui ne représente que 2,5 % en poids du grain[1].
-L'huile de germe de blé a une teneur particulièrement élevée en octacosanol – alcool primaire saturé à chaîne longue de vingt-huit carbones que l'on trouve dans certaines cires végétales[2].
-L'octacosanol a été étudié pour ses propriétés permettant d'améliorer les performances physiques et l'exercice. Des alcools gras à chaîne très longue obtenus à partir de cires végétales et de cire d'abeille permettraient de réduire le taux de cholestérol plasmatique chez l'homme[3].
-L'huile de germe de blé a également une teneur très élevée en vitamine E (255 mg/100 g), teneur plus élevée que celle de tout autre aliment qui n'aurait pas été préalablement préparé ou enrichi en vitamines[4].
-Comme huile de cuisson, l'huile de germe de blé est fortement aromatisée, coûteuse et très périssable[1]. L'huile de germe de blé contient les acides gras suivants[5],[6] :
-D'autres utilisations de l'huile de germe de blé ont été explorées, y compris l'augmentation du débit sanguin et le temps de réaction[7].
-On l'utilise aussi pour traiter certaines affections de la peau telles que les cicatrices et l'inflammation[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile de germe de blé est l'huile extraite du germe du grain de blé, qui ne représente que 2,5 % en poids du grain.
+L'huile de germe de blé a une teneur particulièrement élevée en octacosanol – alcool primaire saturé à chaîne longue de vingt-huit carbones que l'on trouve dans certaines cires végétales.
+L'octacosanol a été étudié pour ses propriétés permettant d'améliorer les performances physiques et l'exercice. Des alcools gras à chaîne très longue obtenus à partir de cires végétales et de cire d'abeille permettraient de réduire le taux de cholestérol plasmatique chez l'homme.
+L'huile de germe de blé a également une teneur très élevée en vitamine E (255 mg/100 g), teneur plus élevée que celle de tout autre aliment qui n'aurait pas été préalablement préparé ou enrichi en vitamines.
+Comme huile de cuisson, l'huile de germe de blé est fortement aromatisée, coûteuse et très périssable. L'huile de germe de blé contient les acides gras suivants, :
+D'autres utilisations de l'huile de germe de blé ont été explorées, y compris l'augmentation du débit sanguin et le temps de réaction.
+On l'utilise aussi pour traiter certaines affections de la peau telles que les cicatrices et l'inflammation.
 </t>
         </is>
       </c>
